--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E06A5-6582-4839-8A9E-3B06CA974842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A57CDA-39C2-41EE-854D-9F7E195D3272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>string</t>
   </si>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_speed_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,6 +478,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A57CDA-39C2-41EE-854D-9F7E195D3272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF94547-C1C9-460F-A8CF-635B78121ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF94547-C1C9-460F-A8CF-635B78121ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>string</t>
   </si>
@@ -74,13 +73,17 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_tower_diff_team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,21 +401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -434,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -445,7 +448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -456,7 +459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -467,7 +470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -478,7 +481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -486,6 +489,17 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>string</t>
   </si>
@@ -41,42 +41,51 @@
     <t>random0</t>
   </si>
   <si>
+    <t>random1</t>
+  </si>
+  <si>
+    <t>73, 44, 91, 49, 58, 42, 14, 60, 35, 81, 15, 60, 27, 41, 73, 92, 95, 63, 58, 38, 13, 12, 93, 55, 74, 34, 62, 70, 61, 33, 97, 28, 53, 55, 12, 40, 75, 95, 37, 36, 4, 11, 81, 32, 0, 86, 43, 77, 68, 94, 69, 33, 43, 66, 68, 55, 28, 52, 3, 46, 60, 31, 57, 37, 78, 79, 92, 87, 41, 39, 22, 76, 70, 76, 72, 68, 69, 53, 78, 25, 82, 8, 8, 30, 83, 63, 97, 4, 56, 17, 83, 77, 57, 81, 53, 5, 16, 47, 32, 74</t>
+  </si>
+  <si>
+    <t>random2</t>
+  </si>
+  <si>
+    <t>8, 38, 82, 5, 28, 13, 76, 93, 75, 62, 43, 26, 63, 35, 60, 9, 91, 30, 26, 52, 60, 92, 74, 79, 27, 16, 67, 14, 55, 23, 46, 81, 71, 29, 63, 82, 78, 57, 87, 78, 33, 8, 96, 98, 23, 83, 36, 77, 88, 79, 97, 49, 8, 65, 62, 8, 78, 74, 69, 56, 18, 96, 43, 72, 5, 21, 44, 56, 63, 59, 47, 37, 98, 45, 91, 52, 19, 98, 60, 47, 86, 46, 47, 89, 89, 87, 15, 80, 22, 74, 64, 90, 53, 60, 36, 8, 58, 36, 27, 84</t>
+  </si>
+  <si>
+    <t>battle_max_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_speed_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_tower_diff_team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>50, 85, 22, 53, 15, 34, 62, 42, 40, 54, 33, 27, 96, 61, 27, 52, 31, 47, 29, 77, 51, 70, 52, 13, 5, 60, 35, 17, 70, 73, 21, 48, 75, 54, 67, 19, 46, 78, 94, 29, 88, 39, 39, 82, 4, 52, 91, 32, 46, 93, 14, 6, 1, 90, 42, 48, 69, 68, 10, 11, 39, 57, 79, 11, 49, 75, 93, 78, 33, 23, 89, 43, 45, 34, 55, 90, 12, 32, 20, 85, 39, 92, 2, 78, 20, 38, 16, 78, 55, 40, 28, 40, 93, 22, 1, 97, 19, 62, 59, 57</t>
-  </si>
-  <si>
-    <t>random1</t>
-  </si>
-  <si>
-    <t>73, 44, 91, 49, 58, 42, 14, 60, 35, 81, 15, 60, 27, 41, 73, 92, 95, 63, 58, 38, 13, 12, 93, 55, 74, 34, 62, 70, 61, 33, 97, 28, 53, 55, 12, 40, 75, 95, 37, 36, 4, 11, 81, 32, 0, 86, 43, 77, 68, 94, 69, 33, 43, 66, 68, 55, 28, 52, 3, 46, 60, 31, 57, 37, 78, 79, 92, 87, 41, 39, 22, 76, 70, 76, 72, 68, 69, 53, 78, 25, 82, 8, 8, 30, 83, 63, 97, 4, 56, 17, 83, 77, 57, 81, 53, 5, 16, 47, 32, 74</t>
-  </si>
-  <si>
-    <t>random2</t>
-  </si>
-  <si>
-    <t>8, 38, 82, 5, 28, 13, 76, 93, 75, 62, 43, 26, 63, 35, 60, 9, 91, 30, 26, 52, 60, 92, 74, 79, 27, 16, 67, 14, 55, 23, 46, 81, 71, 29, 63, 82, 78, 57, 87, 78, 33, 8, 96, 98, 23, 83, 36, 77, 88, 79, 97, 49, 8, 65, 62, 8, 78, 74, 69, 56, 18, 96, 43, 72, 5, 21, 44, 56, 63, 59, 47, 37, 98, 45, 91, 52, 19, 98, 60, 47, 86, 46, 47, 89, 89, 87, 15, 80, 22, 74, 64, 90, 53, 60, 36, 8, 58, 36, 27, 84</t>
-  </si>
-  <si>
-    <t>battle_max_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_speed_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_tower_diff_team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30006, 30007,30008,30009, 30010,30011,30012,30013,30014,30015,30016,30017,30018,30019,30020,30021,30022,30023,30024,30025,30026,30027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_pool_init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,65 +451,76 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>string</t>
   </si>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>card_pool_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest_heal_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest_spend_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_max_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,6 +539,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>string</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>tower_max_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_skill_spend_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,6 +576,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30006, 30007,30008,30009, 30010,30011,30012,30013,30014,30015,30016,30017,30018,30019,30020,30021,30022,30023,30024,30025,30026,30027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card_pool_init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>ex_skill_spend_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30006, 30007,30008,30009, 30010,30011,30012,30013,30014,30015,30016,30017,30018,30019,30020,30021,30022,30023,30024,30025,30026,30027,30030, 30031,30032,30033, 30034,30035,30036,30037,30038,30039,30040,30041,30042,30043,30044,30045,30046,30047,30048,30049,30050,30051</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,10 +534,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -545,40 +545,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>2</v>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -105,7 +105,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30006, 30007,30008,30009, 30010,30011,30012,30013,30014,30015,30016,30017,30018,30019,30020,30021,30022,30023,30024,30025,30026,30027,30030, 30031,30032,30033, 30034,30035,30036,30037,30038,30039,30040,30041,30042,30043,30044,30045,30046,30047,30048,30049,30050,30051</t>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001-30027,30030-30033,30035-30089</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3EDED-1583-43D1-A778-76E629C11F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,14 +110,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30001-30027,30030-30033,30035-30089</t>
+    <t>30001-30027,30030-30033,30035-30125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,21 +435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -470,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,7 +482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -492,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -503,7 +504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -514,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -525,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -536,7 +537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -547,7 +548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -558,7 +559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -569,7 +570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -580,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>

--- a/excel/gameConfig.xlsx
+++ b/excel/gameConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3EDED-1583-43D1-A778-76E629C11F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E8230-CFA9-4F0B-B7E9-EE466025F175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>string</t>
   </si>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>30001-30027,30030-30033,30035-30125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +140,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,8 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,6 +610,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>80001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
